--- a/output/wbs/team_project04_wbs.xlsx
+++ b/output/wbs/team_project04_wbs.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">WBS!$A$1:$AB$90</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
@@ -390,10 +393,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>Haebeop 학부모 커뮤니티 구축 WBS</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>네이버 로그인</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -475,6 +474,10 @@
   </si>
   <si>
     <t>클래스다이어그램</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haebeop 강의 수강 사이트 구축 WBS</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1471,9 +1474,6 @@
     <xf numFmtId="177" fontId="5" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1497,6 +1497,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1718,12 +1721,12 @@
   </sheetPr>
   <dimension ref="B1:BV997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="9" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="9" ySplit="4" topLeftCell="K20" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight" activeCell="AF20" sqref="AF20"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:AB90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1748,13 +1751,13 @@
       <c r="M1"/>
     </row>
     <row r="2" spans="2:74" ht="32.25" customHeight="1">
-      <c r="B2" s="91" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="99" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="55"/>
       <c r="H2" s="55"/>
       <c r="I2" s="55"/>
@@ -3906,7 +3909,7 @@
         <v>1</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q28" s="15"/>
       <c r="R28" s="16"/>
@@ -5872,7 +5875,7 @@
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
       <c r="F52" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
@@ -5956,14 +5959,14 @@
       <c r="D53" s="19"/>
       <c r="E53" s="19"/>
       <c r="F53" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G53" s="20"/>
       <c r="H53" s="20"/>
       <c r="I53" s="20"/>
       <c r="J53" s="20"/>
       <c r="K53" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L53" s="57">
         <v>45216</v>
@@ -6041,7 +6044,7 @@
         <v>101</v>
       </c>
       <c r="E54" s="84" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F54" s="85"/>
       <c r="G54" s="86"/>
@@ -6371,14 +6374,14 @@
       <c r="D58" s="19"/>
       <c r="E58" s="19"/>
       <c r="F58" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G58" s="20"/>
       <c r="H58" s="20"/>
       <c r="I58" s="20"/>
       <c r="J58" s="20"/>
       <c r="K58" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L58" s="57">
         <v>45217</v>
@@ -6454,15 +6457,15 @@
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
-      <c r="F59" s="92" t="s">
-        <v>119</v>
+      <c r="F59" s="91" t="s">
+        <v>118</v>
       </c>
       <c r="G59" s="20"/>
       <c r="H59" s="20"/>
       <c r="I59" s="20"/>
       <c r="J59" s="20"/>
       <c r="K59" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L59" s="57">
         <v>45217</v>
@@ -6622,7 +6625,7 @@
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
       <c r="E61" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F61" s="79"/>
       <c r="G61" s="80"/>
@@ -6700,7 +6703,7 @@
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
       <c r="F62" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G62" s="20"/>
       <c r="H62" s="20"/>
@@ -6783,7 +6786,7 @@
       <c r="C63" s="19"/>
       <c r="D63" s="19"/>
       <c r="E63" s="68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F63" s="79"/>
       <c r="G63" s="80"/>
@@ -6860,14 +6863,14 @@
       <c r="D64" s="19"/>
       <c r="E64" s="19"/>
       <c r="F64" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G64" s="20"/>
       <c r="H64" s="20"/>
       <c r="I64" s="20"/>
       <c r="J64" s="20"/>
       <c r="K64" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L64" s="57">
         <v>45217</v>
@@ -6943,7 +6946,7 @@
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
       <c r="E65" s="68" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F65" s="20"/>
       <c r="G65" s="20"/>
@@ -7020,14 +7023,14 @@
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
       <c r="F66" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G66" s="20"/>
       <c r="H66" s="20"/>
       <c r="I66" s="20"/>
       <c r="J66" s="20"/>
       <c r="K66" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L66" s="57">
         <v>45217</v>
@@ -7104,14 +7107,14 @@
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
       <c r="F67" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G67" s="20"/>
       <c r="H67" s="20"/>
       <c r="I67" s="20"/>
       <c r="J67" s="20"/>
       <c r="K67" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L67" s="57">
         <v>45217</v>
@@ -7188,7 +7191,7 @@
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
       <c r="F68" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G68" s="20"/>
       <c r="H68" s="20"/>
@@ -7272,14 +7275,14 @@
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
       <c r="F69" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G69" s="20"/>
       <c r="H69" s="20"/>
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
       <c r="K69" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L69" s="57">
         <v>45217</v>
@@ -7693,8 +7696,8 @@
       <c r="I74" s="32"/>
       <c r="J74" s="32"/>
       <c r="K74" s="33"/>
-      <c r="L74" s="93"/>
-      <c r="M74" s="94"/>
+      <c r="L74" s="92"/>
+      <c r="M74" s="93"/>
       <c r="N74" s="33"/>
       <c r="O74" s="34"/>
       <c r="Q74" s="15"/>
@@ -7762,14 +7765,14 @@
       <c r="D75" s="19"/>
       <c r="E75" s="26"/>
       <c r="F75" s="69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G75" s="32"/>
       <c r="H75" s="32"/>
       <c r="I75" s="32"/>
       <c r="J75" s="32"/>
       <c r="K75" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L75" s="60">
         <v>45219</v>
@@ -8838,7 +8841,7 @@
       <c r="H88" s="20"/>
       <c r="I88" s="20"/>
       <c r="J88" s="20"/>
-      <c r="K88" s="95" t="s">
+      <c r="K88" s="94" t="s">
         <v>20</v>
       </c>
       <c r="L88" s="57">
@@ -8847,7 +8850,7 @@
       <c r="M88" s="57">
         <v>45224</v>
       </c>
-      <c r="N88" s="97">
+      <c r="N88" s="96">
         <v>1</v>
       </c>
       <c r="O88" s="14"/>
@@ -8922,7 +8925,7 @@
       <c r="H89" s="20"/>
       <c r="I89" s="20"/>
       <c r="J89" s="20"/>
-      <c r="K89" s="95" t="s">
+      <c r="K89" s="94" t="s">
         <v>113</v>
       </c>
       <c r="L89" s="57">
@@ -8931,7 +8934,7 @@
       <c r="M89" s="57">
         <v>45224</v>
       </c>
-      <c r="N89" s="97">
+      <c r="N89" s="96">
         <v>1</v>
       </c>
       <c r="O89" s="14"/>
@@ -9006,7 +9009,7 @@
       <c r="H90" s="41"/>
       <c r="I90" s="41"/>
       <c r="J90" s="41"/>
-      <c r="K90" s="96" t="s">
+      <c r="K90" s="95" t="s">
         <v>113</v>
       </c>
       <c r="L90" s="64">
@@ -9015,7 +9018,7 @@
       <c r="M90" s="64">
         <v>45224</v>
       </c>
-      <c r="N90" s="98">
+      <c r="N90" s="97">
         <v>1</v>
       </c>
       <c r="O90" s="43"/>
@@ -9030,7 +9033,7 @@
       <c r="Y90" s="45"/>
       <c r="Z90" s="45"/>
       <c r="AA90" s="45"/>
-      <c r="AB90" s="99"/>
+      <c r="AB90" s="98"/>
       <c r="AC90" s="45"/>
       <c r="AD90" s="45"/>
       <c r="AE90" s="45"/>
@@ -14525,7 +14528,10 @@
     <mergeCell ref="B2:F2"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="32" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="28" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>